--- a/Piau-Tsu-Im.xlsx
+++ b/Piau-Tsu-Im.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD135D2-AC39-4AAF-BDA5-D4274FA325E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{657F1077-B5E3-4108-902E-F44F7CC7AE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39015" yWindow="1290" windowWidth="15240" windowHeight="12345" activeTab="1" xr2:uid="{0B573A35-83CD-4E08-A2A0-B67B7C700861}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15240" windowHeight="12345" activeTab="1" xr2:uid="{4615289D-F145-46A8-B61A-61B0EF6A71AB}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -43,19 +43,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Key</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>INPUT_FILE_PATH</t>
   </si>
   <si>
+    <t>d:\work\Piau-Im\docs</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>FILE_NAME</t>
   </si>
   <si>
@@ -65,53 +69,27 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>洛神賦</t>
+    <t>文章標題</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IMAGE_URL</t>
   </si>
   <si>
     <t>https://imagepphcloud.thepaper.cn/pph/image/138/820/983.jpg</t>
-  </si>
-  <si>
-    <t>剝卦 (山地剝)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>《彖》曰：剝，剝也，柔變剛也。不利有攸往，小人長也。順而止之，觀象也。君子尚消息盈虛，天行也。
-《象》曰：山附于地，剝，上以厚下安宅。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剝，不利有攸往。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初六，剝床以足，蔑貞凶。
-六二，剝床以辨，蔑貞凶。
-六三，剝之无咎。
-六四，剝床以膚，凶。
-六五，貫魚以宮人寵，无不利。
-上九，碩果不食，君子得輿，小人剝廬。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d:\work\Piau-Im\docs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Noto Sans TC"/>
       <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
@@ -121,11 +99,16 @@
       <charset val="136"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Noto Sans TC"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Noto Sans TC"/>
       <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -172,16 +155,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{9A1C9F04-3BF6-4B40-A0D8-2ED679945B5B}"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{5E36BBBB-A80F-426D-903F-85CC2BA275AA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -512,58 +495,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C191034-0264-4ACB-9EE2-6F249B4E2766}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4BF990-6F6E-48C4-80CC-D6D033257785}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="128.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="128.58203125" style="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="49.5">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="99">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7FCD7E-4C45-457A-A49D-4F2F14B7E4E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD41A542-57CA-4C37-9230-462E2DBCCDC9}">
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="25.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="117.25" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="15" style="3"/>
+    <col min="1" max="1" width="3.08203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="56.75" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="10" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
@@ -579,35 +539,35 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>